--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/IND.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/IND.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>16.29081153869629</v>
+        <v>16.21200180053711</v>
       </c>
       <c r="C2" t="n">
-        <v>16.16425704956055</v>
+        <v>16.0872631072998</v>
       </c>
       <c r="D2" t="n">
-        <v>16.41736602783203</v>
+        <v>16.33674049377441</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>16.2761116027832</v>
+        <v>16.7049560546875</v>
       </c>
       <c r="C3" t="n">
-        <v>15.91360759735107</v>
+        <v>16.55165672302246</v>
       </c>
       <c r="D3" t="n">
-        <v>16.63861656188965</v>
+        <v>16.85825538635254</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>16.18295669555664</v>
+        <v>16.29828453063965</v>
       </c>
       <c r="C4" t="n">
-        <v>15.90876293182373</v>
+        <v>15.99190425872803</v>
       </c>
       <c r="D4" t="n">
-        <v>16.45715141296387</v>
+        <v>16.60466575622559</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>16.13813400268555</v>
+        <v>15.75855731964111</v>
       </c>
       <c r="C5" t="n">
-        <v>15.82422637939453</v>
+        <v>15.58718967437744</v>
       </c>
       <c r="D5" t="n">
-        <v>16.45204162597656</v>
+        <v>15.92992496490479</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>16.15230178833008</v>
+        <v>15.89149284362793</v>
       </c>
       <c r="C6" t="n">
-        <v>15.86055088043213</v>
+        <v>15.79981994628906</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44405364990234</v>
+        <v>15.9831657409668</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>16.19056701660156</v>
+        <v>15.97449016571045</v>
       </c>
       <c r="C7" t="n">
-        <v>15.94373226165771</v>
+        <v>15.85890769958496</v>
       </c>
       <c r="D7" t="n">
-        <v>16.43740272521973</v>
+        <v>16.09007263183594</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2120475769043</v>
+        <v>16.39161491394043</v>
       </c>
       <c r="C8" t="n">
-        <v>15.85375022888184</v>
+        <v>15.54019451141357</v>
       </c>
       <c r="D8" t="n">
-        <v>16.57034492492676</v>
+        <v>17.24303436279297</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>16.13063049316406</v>
+        <v>16.22739791870117</v>
       </c>
       <c r="C9" t="n">
-        <v>15.89770603179932</v>
+        <v>15.56456184387207</v>
       </c>
       <c r="D9" t="n">
-        <v>16.36355400085449</v>
+        <v>16.89023399353027</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>16.20086288452148</v>
+        <v>15.89563751220703</v>
       </c>
       <c r="C10" t="n">
-        <v>15.91383838653564</v>
+        <v>15.67346954345703</v>
       </c>
       <c r="D10" t="n">
-        <v>16.48788642883301</v>
+        <v>16.11780548095703</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>16.16180419921875</v>
+        <v>15.93988513946533</v>
       </c>
       <c r="C11" t="n">
-        <v>15.85205936431885</v>
+        <v>15.86705017089844</v>
       </c>
       <c r="D11" t="n">
-        <v>16.47154998779297</v>
+        <v>16.01272010803223</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>16.16657638549805</v>
+        <v>15.94770050048828</v>
       </c>
       <c r="C12" t="n">
-        <v>15.91070365905762</v>
+        <v>15.86368942260742</v>
       </c>
       <c r="D12" t="n">
-        <v>16.42244911193848</v>
+        <v>16.03171157836914</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>16.19045066833496</v>
+        <v>16.0450325012207</v>
       </c>
       <c r="C13" t="n">
-        <v>15.82940769195557</v>
+        <v>15.69721221923828</v>
       </c>
       <c r="D13" t="n">
-        <v>16.55149269104004</v>
+        <v>16.39285278320312</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>16.18078231811523</v>
+        <v>16.04050064086914</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7665433883667</v>
+        <v>15.5699291229248</v>
       </c>
       <c r="D14" t="n">
-        <v>16.59502029418945</v>
+        <v>16.51107215881348</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>16.25016021728516</v>
+        <v>15.9540376663208</v>
       </c>
       <c r="C15" t="n">
-        <v>15.88215446472168</v>
+        <v>15.88051986694336</v>
       </c>
       <c r="D15" t="n">
-        <v>16.61816596984863</v>
+        <v>16.02755546569824</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>16.24963188171387</v>
+        <v>15.94857501983643</v>
       </c>
       <c r="C16" t="n">
-        <v>15.88394927978516</v>
+        <v>15.90912055969238</v>
       </c>
       <c r="D16" t="n">
-        <v>16.61531448364258</v>
+        <v>15.98802947998047</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>16.22325706481934</v>
+        <v>15.95677947998047</v>
       </c>
       <c r="C17" t="n">
-        <v>15.85092544555664</v>
+        <v>15.94340991973877</v>
       </c>
       <c r="D17" t="n">
-        <v>16.59558868408203</v>
+        <v>15.97014904022217</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>16.2513256072998</v>
+        <v>15.96043586730957</v>
       </c>
       <c r="C18" t="n">
-        <v>16.01767539978027</v>
+        <v>15.9511833190918</v>
       </c>
       <c r="D18" t="n">
-        <v>16.48497581481934</v>
+        <v>15.96968841552734</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>16.13871955871582</v>
+        <v>15.96115398406982</v>
       </c>
       <c r="C19" t="n">
-        <v>15.80033016204834</v>
+        <v>15.9532356262207</v>
       </c>
       <c r="D19" t="n">
-        <v>16.47710800170898</v>
+        <v>15.96907234191895</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>16.21334266662598</v>
+        <v>15.95838165283203</v>
       </c>
       <c r="C20" t="n">
-        <v>15.86227512359619</v>
+        <v>15.95050811767578</v>
       </c>
       <c r="D20" t="n">
-        <v>16.56440925598145</v>
+        <v>15.96625518798828</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>16.18812370300293</v>
+        <v>15.96108055114746</v>
       </c>
       <c r="C21" t="n">
-        <v>15.75949573516846</v>
+        <v>15.9526948928833</v>
       </c>
       <c r="D21" t="n">
-        <v>16.61675262451172</v>
+        <v>15.96946620941162</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>16.2469367980957</v>
+        <v>15.95780467987061</v>
       </c>
       <c r="C22" t="n">
-        <v>15.91680335998535</v>
+        <v>15.94681358337402</v>
       </c>
       <c r="D22" t="n">
-        <v>16.57707023620605</v>
+        <v>15.96879577636719</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>16.2358512878418</v>
+        <v>15.95932197570801</v>
       </c>
       <c r="C23" t="n">
-        <v>15.8211612701416</v>
+        <v>15.94776248931885</v>
       </c>
       <c r="D23" t="n">
-        <v>16.65054130554199</v>
+        <v>15.97088146209717</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>16.17954635620117</v>
+        <v>15.95966911315918</v>
       </c>
       <c r="C24" t="n">
-        <v>15.77628326416016</v>
+        <v>15.9486083984375</v>
       </c>
       <c r="D24" t="n">
-        <v>16.58280944824219</v>
+        <v>15.97072982788086</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>16.12347984313965</v>
+        <v>15.96187305450439</v>
       </c>
       <c r="C25" t="n">
-        <v>15.82126426696777</v>
+        <v>15.95301055908203</v>
       </c>
       <c r="D25" t="n">
-        <v>16.42569541931152</v>
+        <v>15.97073554992676</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>16.18715286254883</v>
+        <v>15.9621639251709</v>
       </c>
       <c r="C26" t="n">
-        <v>15.94076251983643</v>
+        <v>15.94975757598877</v>
       </c>
       <c r="D26" t="n">
-        <v>16.43354225158691</v>
+        <v>15.97457027435303</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>16.32819557189941</v>
+        <v>15.96192932128906</v>
       </c>
       <c r="C27" t="n">
-        <v>15.94161796569824</v>
+        <v>15.95272922515869</v>
       </c>
       <c r="D27" t="n">
-        <v>16.71477317810059</v>
+        <v>15.97112941741943</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>16.19102096557617</v>
+        <v>15.96183013916016</v>
       </c>
       <c r="C28" t="n">
-        <v>15.86832714080811</v>
+        <v>15.95723915100098</v>
       </c>
       <c r="D28" t="n">
-        <v>16.51371383666992</v>
+        <v>15.96642112731934</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>16.1733283996582</v>
+        <v>15.9578914642334</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8130407333374</v>
+        <v>15.9496898651123</v>
       </c>
       <c r="D29" t="n">
-        <v>16.53361701965332</v>
+        <v>15.96609306335449</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>16.23058700561523</v>
+        <v>15.95661735534668</v>
       </c>
       <c r="C30" t="n">
-        <v>16.03941917419434</v>
+        <v>15.94190883636475</v>
       </c>
       <c r="D30" t="n">
-        <v>16.42175483703613</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16.23306655883789</v>
-      </c>
-      <c r="C31" t="n">
-        <v>16.01729583740234</v>
-      </c>
-      <c r="D31" t="n">
-        <v>16.44883728027344</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>16.20287322998047</v>
-      </c>
-      <c r="C32" t="n">
-        <v>15.93288135528564</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16.47286415100098</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>16.13921737670898</v>
-      </c>
-      <c r="C33" t="n">
-        <v>15.70444679260254</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16.57398796081543</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>16.20639419555664</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16.00959205627441</v>
-      </c>
-      <c r="D34" t="n">
-        <v>16.40319633483887</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>16.10740089416504</v>
-      </c>
-      <c r="C35" t="n">
-        <v>15.77466011047363</v>
-      </c>
-      <c r="D35" t="n">
-        <v>16.44014167785645</v>
+        <v>15.97132587432861</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>16.05030021667481</v>
+        <v>15.95825481414795</v>
       </c>
       <c r="C2" t="n">
-        <v>15.74146988297674</v>
+        <v>15.94839859008789</v>
       </c>
       <c r="D2" t="n">
-        <v>16.35913055037287</v>
+        <v>15.96811103820801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>16.10303754806518</v>
+        <v>15.96032238006592</v>
       </c>
       <c r="C3" t="n">
-        <v>15.65798968744721</v>
+        <v>15.95038604736328</v>
       </c>
       <c r="D3" t="n">
-        <v>16.54808540868315</v>
+        <v>15.97025871276855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>15.77877521514893</v>
+        <v>15.95943260192871</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5679697119669</v>
+        <v>15.94430351257324</v>
       </c>
       <c r="D4" t="n">
-        <v>15.98958071833096</v>
+        <v>15.97456169128418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>16.32049808502197</v>
+        <v>15.95713233947754</v>
       </c>
       <c r="C5" t="n">
-        <v>16.13068605699187</v>
+        <v>15.94346046447754</v>
       </c>
       <c r="D5" t="n">
-        <v>16.51031011305208</v>
+        <v>15.97080421447754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>16.27259941101074</v>
+        <v>15.96177959442139</v>
       </c>
       <c r="C6" t="n">
-        <v>16.12992236786541</v>
+        <v>15.95287322998047</v>
       </c>
       <c r="D6" t="n">
-        <v>16.41527645415607</v>
+        <v>15.9706859588623</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>16.01604080200195</v>
+        <v>16.20660018920898</v>
       </c>
       <c r="C2" t="n">
-        <v>15.53555774688721</v>
+        <v>16.04360008239746</v>
       </c>
       <c r="D2" t="n">
-        <v>16.49652481079102</v>
+        <v>16.36960029602051</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8496732711792</v>
+        <v>16.79981231689453</v>
       </c>
       <c r="C3" t="n">
-        <v>15.47836303710938</v>
+        <v>16.70220184326172</v>
       </c>
       <c r="D3" t="n">
-        <v>16.22098350524902</v>
+        <v>16.89742279052734</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>15.86179637908936</v>
+        <v>16.76650238037109</v>
       </c>
       <c r="C4" t="n">
-        <v>15.55449199676514</v>
+        <v>16.53078842163086</v>
       </c>
       <c r="D4" t="n">
-        <v>16.16909980773926</v>
+        <v>17.00221633911133</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>15.92129039764404</v>
+        <v>15.74732208251953</v>
       </c>
       <c r="C5" t="n">
-        <v>15.58527088165283</v>
+        <v>15.71956729888916</v>
       </c>
       <c r="D5" t="n">
-        <v>16.25731086730957</v>
+        <v>15.7750768661499</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>15.97822761535645</v>
+        <v>15.79526710510254</v>
       </c>
       <c r="C6" t="n">
-        <v>15.39086818695068</v>
+        <v>15.75273323059082</v>
       </c>
       <c r="D6" t="n">
-        <v>16.56558609008789</v>
+        <v>15.83780097961426</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>16.01736068725586</v>
+        <v>15.70771312713623</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39692497253418</v>
+        <v>15.67008495330811</v>
       </c>
       <c r="D7" t="n">
-        <v>16.63779640197754</v>
+        <v>15.74534130096436</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>16.06900596618652</v>
+        <v>16.69927406311035</v>
       </c>
       <c r="C8" t="n">
-        <v>15.40123844146729</v>
+        <v>16.5659008026123</v>
       </c>
       <c r="D8" t="n">
-        <v>16.73677253723145</v>
+        <v>16.8326473236084</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>16.01020050048828</v>
+        <v>16.74123382568359</v>
       </c>
       <c r="C9" t="n">
-        <v>15.43783760070801</v>
+        <v>16.66575622558594</v>
       </c>
       <c r="D9" t="n">
-        <v>16.58256340026855</v>
+        <v>16.81671142578125</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>16.07133674621582</v>
+        <v>16.77749633789062</v>
       </c>
       <c r="C10" t="n">
-        <v>15.49837207794189</v>
+        <v>16.67118072509766</v>
       </c>
       <c r="D10" t="n">
-        <v>16.64430046081543</v>
+        <v>16.88381195068359</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>15.88779258728027</v>
+        <v>15.74095630645752</v>
       </c>
       <c r="C11" t="n">
-        <v>15.40918922424316</v>
+        <v>15.72064208984375</v>
       </c>
       <c r="D11" t="n">
-        <v>16.36639595031738</v>
+        <v>15.76127052307129</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>15.81332874298096</v>
+        <v>15.77709007263184</v>
       </c>
       <c r="C12" t="n">
-        <v>15.40576553344727</v>
+        <v>15.70213031768799</v>
       </c>
       <c r="D12" t="n">
-        <v>16.22089195251465</v>
+        <v>15.85204982757568</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>15.85873222351074</v>
+        <v>15.79649829864502</v>
       </c>
       <c r="C13" t="n">
-        <v>15.5533447265625</v>
+        <v>15.40767765045166</v>
       </c>
       <c r="D13" t="n">
-        <v>16.16411972045898</v>
+        <v>16.18531799316406</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>16.00351715087891</v>
+        <v>16.66074371337891</v>
       </c>
       <c r="C14" t="n">
-        <v>15.69435405731201</v>
+        <v>16.45281791687012</v>
       </c>
       <c r="D14" t="n">
-        <v>16.31268119812012</v>
+        <v>16.8686695098877</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>15.93531513214111</v>
+        <v>16.74492263793945</v>
       </c>
       <c r="C15" t="n">
-        <v>15.46526145935059</v>
+        <v>16.65656280517578</v>
       </c>
       <c r="D15" t="n">
-        <v>16.40536880493164</v>
+        <v>16.83328247070312</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>15.97987079620361</v>
+        <v>16.68379592895508</v>
       </c>
       <c r="C16" t="n">
-        <v>15.58285236358643</v>
+        <v>16.05447196960449</v>
       </c>
       <c r="D16" t="n">
-        <v>16.37688827514648</v>
+        <v>17.31311988830566</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>15.95283794403076</v>
+        <v>15.74492454528809</v>
       </c>
       <c r="C17" t="n">
-        <v>15.42120552062988</v>
+        <v>15.71480846405029</v>
       </c>
       <c r="D17" t="n">
-        <v>16.48447036743164</v>
+        <v>15.77504062652588</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>15.93831443786621</v>
+        <v>15.76046562194824</v>
       </c>
       <c r="C18" t="n">
-        <v>15.40519618988037</v>
+        <v>15.67596340179443</v>
       </c>
       <c r="D18" t="n">
-        <v>16.47143363952637</v>
+        <v>15.84496784210205</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>15.9294376373291</v>
+        <v>15.90193367004395</v>
       </c>
       <c r="C19" t="n">
-        <v>15.57357501983643</v>
+        <v>15.12876892089844</v>
       </c>
       <c r="D19" t="n">
-        <v>16.28530120849609</v>
+        <v>16.67509841918945</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>15.95913410186768</v>
+        <v>16.70148086547852</v>
       </c>
       <c r="C20" t="n">
-        <v>15.69784355163574</v>
+        <v>16.58992576599121</v>
       </c>
       <c r="D20" t="n">
-        <v>16.22042465209961</v>
+        <v>16.81303596496582</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>15.93203258514404</v>
+        <v>16.7304630279541</v>
       </c>
       <c r="C21" t="n">
-        <v>15.53524589538574</v>
+        <v>16.61479568481445</v>
       </c>
       <c r="D21" t="n">
-        <v>16.32881927490234</v>
+        <v>16.84613037109375</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>15.94426441192627</v>
+        <v>16.56232261657715</v>
       </c>
       <c r="C22" t="n">
-        <v>15.34887313842773</v>
+        <v>15.74675750732422</v>
       </c>
       <c r="D22" t="n">
-        <v>16.5396556854248</v>
+        <v>17.37788772583008</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>15.81327819824219</v>
+        <v>15.75068664550781</v>
       </c>
       <c r="C23" t="n">
-        <v>15.4097375869751</v>
+        <v>15.71330547332764</v>
       </c>
       <c r="D23" t="n">
-        <v>16.21681976318359</v>
+        <v>15.78806781768799</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>15.80822467803955</v>
+        <v>15.7570219039917</v>
       </c>
       <c r="C24" t="n">
-        <v>15.30445194244385</v>
+        <v>15.69697189331055</v>
       </c>
       <c r="D24" t="n">
-        <v>16.31199836730957</v>
+        <v>15.81707191467285</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>15.77514362335205</v>
+        <v>15.93787097930908</v>
       </c>
       <c r="C25" t="n">
-        <v>15.53017044067383</v>
+        <v>15.17152404785156</v>
       </c>
       <c r="D25" t="n">
-        <v>16.02011680603027</v>
+        <v>16.7042179107666</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>15.94197273254395</v>
+        <v>16.72733688354492</v>
       </c>
       <c r="C26" t="n">
-        <v>15.31386852264404</v>
+        <v>16.64798545837402</v>
       </c>
       <c r="D26" t="n">
-        <v>16.57007598876953</v>
+        <v>16.80668830871582</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>15.86744117736816</v>
+        <v>16.73916816711426</v>
       </c>
       <c r="C27" t="n">
-        <v>15.30284976959229</v>
+        <v>16.66928100585938</v>
       </c>
       <c r="D27" t="n">
-        <v>16.43203353881836</v>
+        <v>16.80905532836914</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>15.89116191864014</v>
+        <v>16.54340744018555</v>
       </c>
       <c r="C28" t="n">
-        <v>15.45538806915283</v>
+        <v>15.72515296936035</v>
       </c>
       <c r="D28" t="n">
-        <v>16.32693481445312</v>
+        <v>17.36166191101074</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>15.83711814880371</v>
+        <v>15.75506401062012</v>
       </c>
       <c r="C29" t="n">
-        <v>15.38870716094971</v>
+        <v>15.70746421813965</v>
       </c>
       <c r="D29" t="n">
-        <v>16.2855281829834</v>
+        <v>15.80266380310059</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>15.86169910430908</v>
+        <v>15.7749605178833</v>
       </c>
       <c r="C30" t="n">
-        <v>15.49232196807861</v>
+        <v>15.67916679382324</v>
       </c>
       <c r="D30" t="n">
-        <v>16.23107719421387</v>
+        <v>15.87075424194336</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>15.84980964660645</v>
+        <v>15.94654369354248</v>
       </c>
       <c r="C31" t="n">
-        <v>15.44449424743652</v>
+        <v>15.15929889678955</v>
       </c>
       <c r="D31" t="n">
-        <v>16.25512504577637</v>
+        <v>16.73378753662109</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>15.9725341796875</v>
+        <v>16.69778633117676</v>
       </c>
       <c r="C32" t="n">
-        <v>15.62835884094238</v>
+        <v>16.53392028808594</v>
       </c>
       <c r="D32" t="n">
-        <v>16.31670951843262</v>
+        <v>16.86165237426758</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>15.95075225830078</v>
+        <v>16.71961784362793</v>
       </c>
       <c r="C33" t="n">
-        <v>15.55774021148682</v>
+        <v>16.66298675537109</v>
       </c>
       <c r="D33" t="n">
-        <v>16.34376525878906</v>
+        <v>16.77624893188477</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>15.90248870849609</v>
+        <v>16.54104995727539</v>
       </c>
       <c r="C34" t="n">
-        <v>15.50107479095459</v>
+        <v>15.76288318634033</v>
       </c>
       <c r="D34" t="n">
-        <v>16.30390167236328</v>
+        <v>17.31921768188477</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>15.92644309997559</v>
+        <v>15.74550151824951</v>
       </c>
       <c r="C35" t="n">
-        <v>15.34172916412354</v>
+        <v>15.69999122619629</v>
       </c>
       <c r="D35" t="n">
-        <v>16.51115608215332</v>
+        <v>15.79101181030273</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>15.92449254989624</v>
+        <v>16.62742204666138</v>
       </c>
       <c r="C2" t="n">
-        <v>15.76439849009594</v>
+        <v>16.06266406106527</v>
       </c>
       <c r="D2" t="n">
-        <v>16.08458660969654</v>
+        <v>17.19218003225749</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>16.31974601745605</v>
+        <v>16.55662307739258</v>
       </c>
       <c r="C3" t="n">
-        <v>16.09308151010104</v>
+        <v>16.2636821969205</v>
       </c>
       <c r="D3" t="n">
-        <v>16.54641052481107</v>
+        <v>16.84956395786466</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>16.14044485092163</v>
+        <v>16.23605442047119</v>
       </c>
       <c r="C4" t="n">
-        <v>15.79304367342991</v>
+        <v>15.97532180000891</v>
       </c>
       <c r="D4" t="n">
-        <v>16.48784602841335</v>
+        <v>16.49678704093347</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>15.97885932922363</v>
+        <v>16.24962596893311</v>
       </c>
       <c r="C5" t="n">
-        <v>15.80917136037684</v>
+        <v>16.12180914987744</v>
       </c>
       <c r="D5" t="n">
-        <v>16.14854729807043</v>
+        <v>16.37744278798878</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>15.99662351608276</v>
+        <v>16.15857391357422</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6169774437248</v>
+        <v>15.81672158536478</v>
       </c>
       <c r="D6" t="n">
-        <v>16.37626958844073</v>
+        <v>16.50042624178366</v>
       </c>
     </row>
   </sheetData>
